--- a/Overview - Dating Apps.xlsx
+++ b/Overview - Dating Apps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BEE430-6EDD-48AD-9C27-014FBD314CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E496E-22A2-4D79-AE93-A236890700BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1740" windowWidth="26610" windowHeight="12885" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Ticker</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Snap Inc.</t>
   </si>
   <si>
-    <t>Social meida app</t>
-  </si>
-  <si>
     <t>NYSE</t>
   </si>
   <si>
@@ -229,7 +226,19 @@
     <t>2.) AI features of different apps?</t>
   </si>
   <si>
-    <t>revenue streams? Tiers?</t>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>DAU</t>
+  </si>
+  <si>
+    <t>Social media app designed for intimate connections</t>
+  </si>
+  <si>
+    <t>revenue streams? Tiers? Growth??</t>
+  </si>
+  <si>
+    <t>match group has quasi-monopoly power</t>
   </si>
 </sst>
 </file>
@@ -457,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,23 +544,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -562,6 +561,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -879,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDCAD7-5CC3-4175-BF3F-64079CF3AE6D}">
-  <dimension ref="B2:U22"/>
+  <dimension ref="B2:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -900,13 +908,15 @@
     <col min="9" max="10" width="9.140625" style="10"/>
     <col min="11" max="12" width="9.140625" style="12"/>
     <col min="13" max="15" width="9.140625" style="6"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="4"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="4"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" s="2" customFormat="1">
+    <row r="2" spans="2:23" s="2" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,20 +959,26 @@
       <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="R2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:23">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -973,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="10">
         <v>35.06</v>
@@ -985,11 +1001,12 @@
         <f>G3*F3</f>
         <v>9396.4305999999997</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="16"/>
+      <c r="W3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:23">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -997,10 +1014,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="10">
         <v>8.33</v>
@@ -1015,11 +1032,14 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="4"/>
-      <c r="U4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
+      <c r="V4" s="16">
+        <v>44866</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10">
         <v>11.28</v>
@@ -1045,11 +1065,12 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="4"/>
-      <c r="U5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
+      <c r="V5" s="16"/>
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="10">
         <v>6.63</v>
@@ -1075,26 +1096,26 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="4"/>
-      <c r="R6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="4">
         <v>2011</v>
       </c>
-      <c r="T6" s="16">
+      <c r="V6" s="16">
         <v>41944</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:23">
       <c r="E7" s="1"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:21" s="17" customFormat="1">
+    <row r="8" spans="2:23" s="17" customFormat="1">
       <c r="D8" s="18"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -1106,11 +1127,13 @@
       <c r="M8" s="18"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
       <c r="T8" s="18"/>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1118,10 +1141,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="10">
         <v>11.03</v>
@@ -1136,47 +1159,47 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="4"/>
-      <c r="U9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="W9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
       <c r="E10" s="1"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:23">
       <c r="E11" s="1"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:23">
       <c r="E12" s="1"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:23">
       <c r="E13" s="1"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:23">
       <c r="E14" s="1"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:23">
       <c r="E15" s="1"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:23">
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
@@ -1213,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD93F413-FE98-4922-87F8-665E16991E51}">
   <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1224,166 +1247,163 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="48"/>
+      <c r="U3" s="44"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="38"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="R5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="38"/>
+      <c r="T5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="42"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="R5" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="42"/>
+      <c r="U5" s="38"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="38"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="42"/>
+        <v>39</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="38"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="R8" s="41"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="42"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="38"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="R9" s="41"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="42"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="38"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="45"/>
+        <v>43</v>
+      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="41"/>
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:21">
-      <c r="R14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
+      <c r="R14" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="U15" s="33"/>
     </row>
     <row r="16" spans="2:21">
       <c r="R16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
+        <v>62</v>
+      </c>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="U17" s="33"/>
       <c r="V17" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Overview - Dating Apps.xlsx
+++ b/Overview - Dating Apps.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E496E-22A2-4D79-AE93-A236890700BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8225E3-86CD-49D8-9DD0-A54EF6BEE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Sector Thesis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Ticker</t>
   </si>
@@ -118,9 +121,6 @@
     <t>Hello Group Inc.</t>
   </si>
   <si>
-    <t>Chinese dating website/app, owns Tantan (Chinese tindr)</t>
-  </si>
-  <si>
     <t>NASDAQ</t>
   </si>
   <si>
@@ -226,9 +226,6 @@
     <t>2.) AI features of different apps?</t>
   </si>
   <si>
-    <t>Members</t>
-  </si>
-  <si>
     <t>DAU</t>
   </si>
   <si>
@@ -239,6 +236,15 @@
   </si>
   <si>
     <t>match group has quasi-monopoly power</t>
+  </si>
+  <si>
+    <t>Chinese dating website/app, owns Tantan (Chinese tinder)</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>ARPU ($)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -488,14 +494,12 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,6 +558,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,6 +581,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,6 +602,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>11.03</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1612.5039999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>17785.919119999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-205.32000000000016</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>17991.239119999998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Santa Monica, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>42795</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>414</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>3.29</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>5289</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>FY23</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,13 +980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDCAD7-5CC3-4175-BF3F-64079CF3AE6D}">
-  <dimension ref="B2:W22"/>
+  <dimension ref="B2:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20:P37"/>
+      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -902,21 +995,22 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
-    <col min="7" max="7" width="9.140625" style="11"/>
-    <col min="8" max="8" width="9.140625" style="15"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="9.140625" style="13"/>
     <col min="9" max="10" width="9.140625" style="10"/>
-    <col min="11" max="12" width="9.140625" style="12"/>
+    <col min="11" max="12" width="9.140625" style="11"/>
     <col min="13" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="4"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="4"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="2" customFormat="1">
+    <row r="2" spans="2:24" s="2" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -935,19 +1029,19 @@
       <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="42" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -960,25 +1054,28 @@
         <v>13</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:24">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,27 +1083,27 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="10">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9">
         <v>35.06</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>268.01</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <f>G3*F3</f>
         <v>9396.4305999999997</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="14"/>
+      <c r="X3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:24">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1014,32 +1111,30 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>8.33</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>174.99</v>
       </c>
-      <c r="H4" s="15">
-        <f t="shared" ref="H4:H9" si="0">G4*F4</f>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H6" si="0">G4*F4</f>
         <v>1457.6667</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
       <c r="M4" s="4"/>
-      <c r="V4" s="16">
+      <c r="W4" s="14">
         <v>44866</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23">
+      <c r="X4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1047,30 +1142,28 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="10">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9">
         <v>11.28</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>130.69</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>1474.1831999999999</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
       <c r="M5" s="4"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23">
+      <c r="W5" s="14"/>
+      <c r="X5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1078,156 +1171,152 @@
         <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9">
         <v>6.63</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>189.94</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>1259.3021999999999</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
       <c r="M6" s="4"/>
-      <c r="T6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="U6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="4">
         <v>2011</v>
       </c>
-      <c r="V6" s="16">
+      <c r="W6" s="14">
         <v>41944</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23">
+      <c r="X6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
       <c r="E7" s="1"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:23" s="17" customFormat="1">
-      <c r="D8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="2:23">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="2:24" s="15" customFormat="1">
+      <c r="D8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="F9" s="41">
+        <f>+[1]Main!$C$6</f>
         <v>11.03</v>
       </c>
-      <c r="G9" s="11">
-        <v>1400</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>15442</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="G9" s="10">
+        <f>+[1]Main!$C$7</f>
+        <v>1612.5039999999999</v>
+      </c>
+      <c r="H9" s="13">
+        <f>+[1]Main!$C$8</f>
+        <v>17785.919119999999</v>
+      </c>
+      <c r="I9" s="10">
+        <f>+[1]Main!$C$11</f>
+        <v>-205.32000000000016</v>
+      </c>
+      <c r="J9" s="10">
+        <f>+[1]Main!$C$12</f>
+        <v>17991.239119999998</v>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f>+[1]Main!$C$31</f>
+        <v>FY23</v>
+      </c>
       <c r="M9" s="4"/>
-      <c r="W9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="Q9" s="4">
+        <f>[1]Main!$C$27</f>
+        <v>414</v>
+      </c>
+      <c r="R9" s="4">
+        <f>[1]Main!$C$28</f>
+        <v>3.29</v>
+      </c>
+      <c r="S9" s="50">
+        <f>[1]Main!$C$29</f>
+        <v>5289</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f>+[1]Main!$C$23</f>
+        <v>Santa Monica, CA</v>
+      </c>
+      <c r="V9" s="4">
+        <f>+[1]Main!$C$24</f>
+        <v>2010</v>
+      </c>
+      <c r="W9" s="14">
+        <f>+[1]Main!$C$25</f>
+        <v>42795</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
       <c r="E10" s="1"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:24">
       <c r="E11" s="1"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:24">
       <c r="E12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:24">
       <c r="E13" s="1"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:24">
       <c r="E14" s="1"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:24">
       <c r="E15" s="1"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:23">
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="11:12">
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="11:12">
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="11:12">
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="11:12">
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="11:12">
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="11:12">
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{086CCA65-AC8F-4D6E-B91F-48D849BC669F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1236,174 +1325,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD93F413-FE98-4922-87F8-665E16991E51}">
   <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P31" sqref="P31:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="26" t="s">
+      <c r="R3" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="45"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45" t="s">
+      <c r="R4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="36"/>
+      <c r="T4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="36"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="R5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="44"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="26" t="s">
+      <c r="S5" s="36"/>
+      <c r="T5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="36"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="38"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="R5" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="39" t="s">
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="38"/>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="27" t="s">
+      <c r="U6" s="36"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39" t="s">
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="39"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="R14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" s="31"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="R16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="U17" s="31"/>
+      <c r="V17" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="38"/>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="38"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="38"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="38"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="41"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="R14" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15" s="33"/>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="R16" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="33"/>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="30" t="s">
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="24" t="s">
+    <row r="24" spans="2:22">
+      <c r="B24" s="24" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="26" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Overview - Dating Apps.xlsx
+++ b/Overview - Dating Apps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8225E3-86CD-49D8-9DD0-A54EF6BEE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572903DF-2775-4913-999F-5D496B6BFA67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
+    <workbookView xWindow="-2640" yWindow="2070" windowWidth="26610" windowHeight="12885" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,77 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>me</author>
+  </authors>
+  <commentList>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{61692BF7-5EDF-4010-9914-F02488D9F372}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of Paying Users at the end of a period</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{73244B2F-71C1-4DEB-BE29-3A657E040492}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Daily Average Users</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Ticker</t>
   </si>
@@ -136,9 +186,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>Bumble dating app, 'feminist dating app'</t>
-  </si>
-  <si>
     <t>Beijing, China</t>
   </si>
   <si>
@@ -229,9 +276,6 @@
     <t>DAU</t>
   </si>
   <si>
-    <t>Social media app designed for intimate connections</t>
-  </si>
-  <si>
     <t>revenue streams? Tiers? Growth??</t>
   </si>
   <si>
@@ -244,7 +288,25 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>ARPU ($)</t>
+    <t>Social media app designed with expiring messages for intimate connections</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>(million)</t>
+  </si>
+  <si>
+    <t>ARPU</t>
+  </si>
+  <si>
+    <t>($)</t>
+  </si>
+  <si>
+    <t>Bumble dating app  'feminist dating app', Badoo</t>
+  </si>
+  <si>
+    <t>FY23</t>
   </si>
 </sst>
 </file>
@@ -255,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +418,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="S10"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -472,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,6 +646,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,7 +667,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,11 +698,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -677,7 +767,79 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>10.68</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>134.936824</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1441.12528032</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-265.28400000000005</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>1706.4092803200001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Austin, TX</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>44228</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>3.7206999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>23.03</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="44">
+          <cell r="W44">
+            <v>1200</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -979,14 +1141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDCAD7-5CC3-4175-BF3F-64079CF3AE6D}">
-  <dimension ref="B2:X15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDCAD7-5CC3-4175-BF3F-64079CF3AE6D}">
+  <dimension ref="B1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1002,15 +1164,27 @@
     <col min="11" max="12" width="9.140625" style="11"/>
     <col min="13" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="4"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="19" width="9.140625" style="4"/>
+    <col min="20" max="20" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" style="4"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" s="2" customFormat="1">
+    <row r="1" spans="2:26">
+      <c r="Q1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="53"/>
+    </row>
+    <row r="2" spans="2:26" s="2" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1054,28 +1228,32 @@
         <v>13</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:26">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1098,12 +1276,13 @@
         <f>G3*F3</f>
         <v>9396.4305999999997</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:26">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1127,15 +1306,16 @@
         <v>1457.6667</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="W4" s="14">
+      <c r="X4" s="14">
         <v>44866</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="1" t="s">
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26">
+      <c r="B5" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1147,23 +1327,60 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="9">
-        <v>11.28</v>
+      <c r="F5" s="51">
+        <f>[2]Main!$C$6</f>
+        <v>10.68</v>
       </c>
       <c r="G5" s="10">
-        <v>130.69</v>
+        <f>[2]Main!$C$7</f>
+        <v>134.936824</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" si="0"/>
-        <v>1474.1831999999999</v>
+        <f>[2]Main!$C$8</f>
+        <v>1441.12528032</v>
+      </c>
+      <c r="I5" s="10">
+        <f>[2]Main!$C$11</f>
+        <v>-265.28400000000005</v>
+      </c>
+      <c r="J5" s="10">
+        <f>[2]Main!$C$12</f>
+        <v>1706.4092803200001</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="Q5" s="52">
+        <f>[2]Main!$C$27</f>
+        <v>3.7206999999999999</v>
+      </c>
+      <c r="S5" s="54">
+        <f>[2]Main!$C$28</f>
+        <v>23.03</v>
+      </c>
+      <c r="T5" s="44">
+        <f>'[2]Financial Model'!$W$44</f>
+        <v>1200</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f>+[2]Main!$C$23</f>
+        <v>Austin, TX</v>
+      </c>
+      <c r="W5" s="4">
+        <f>+[2]Main!$C$24</f>
+        <v>2006</v>
+      </c>
+      <c r="X5" s="14">
+        <f>+[2]Main!$C$25</f>
+        <v>44228</v>
+      </c>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1187,24 +1404,25 @@
         <v>1259.3021999999999</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="V6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="4">
         <v>2011</v>
       </c>
-      <c r="W6" s="14">
+      <c r="X6" s="14">
         <v>41944</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24">
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
       <c r="E7" s="1"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:24" s="15" customFormat="1">
+    <row r="8" spans="2:26" s="15" customFormat="1">
       <c r="D8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
@@ -1219,11 +1437,13 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="T8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
-    </row>
-    <row r="9" spans="2:24">
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" s="43" t="s">
         <v>28</v>
       </c>
@@ -1261,63 +1481,93 @@
         <v>FY23</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f>[1]Main!$C$27</f>
         <v>414</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f>[1]Main!$C$28</f>
         <v>3.29</v>
       </c>
-      <c r="S9" s="50">
+      <c r="T9" s="44">
         <f>[1]Main!$C$29</f>
         <v>5289</v>
       </c>
-      <c r="U9" s="4" t="str">
+      <c r="V9" s="4" t="str">
         <f>+[1]Main!$C$23</f>
         <v>Santa Monica, CA</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <f>+[1]Main!$C$24</f>
         <v>2010</v>
       </c>
-      <c r="W9" s="14">
+      <c r="X9" s="14">
         <f>+[1]Main!$C$25</f>
         <v>42795</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
       <c r="E10" s="1"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:26">
       <c r="E11" s="1"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:26">
       <c r="E12" s="1"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:26">
       <c r="E13" s="1"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:26">
       <c r="E14" s="1"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:26">
       <c r="E15" s="1"/>
       <c r="M15" s="4"/>
+    </row>
+    <row r="30" spans="15:26">
+      <c r="O30" s="13"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="1"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="15:26">
+      <c r="O31" s="13"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="1"/>
+      <c r="Z31" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{086CCA65-AC8F-4D6E-B91F-48D849BC669F}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{E86FEFFE-C472-4B99-BDD2-2B64F484847E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H5" formula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1326,7 +1576,7 @@
   <dimension ref="B2:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:Q31"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1336,59 +1586,59 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="46"/>
+      <c r="T3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="45"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S4" s="36"/>
       <c r="T4" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U4" s="36"/>
     </row>
     <row r="5" spans="2:21">
       <c r="R5" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S5" s="36"/>
       <c r="T5" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U5" s="36"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" s="35"/>
       <c r="S6" s="36"/>
       <c r="T6" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U6" s="36"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="35"/>
       <c r="S7" s="36"/>
@@ -1409,7 +1659,7 @@
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="39"/>
@@ -1418,81 +1668,81 @@
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:21">
-      <c r="R14" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="49"/>
+      <c r="R14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="50"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U15" s="31"/>
     </row>
     <row r="16" spans="2:21">
       <c r="R16" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U16" s="31"/>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U17" s="31"/>
       <c r="V17" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="34"/>
       <c r="V18" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Overview - Dating Apps.xlsx
+++ b/Overview - Dating Apps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572903DF-2775-4913-999F-5D496B6BFA67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F797B1-27F2-426A-B401-2F23283E34CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="2070" windowWidth="26610" windowHeight="12885" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
+    <workbookView xWindow="2205" yWindow="960" windowWidth="26610" windowHeight="12885" xr2:uid="{8DD4D602-3D6B-425D-835C-57218E4C1C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -649,24 +649,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -677,6 +659,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,66 +708,62 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>11.03</v>
+            <v>10.68</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1612.5039999999999</v>
+            <v>134.936824</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>17785.919119999999</v>
+            <v>1441.12528032</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-205.32000000000016</v>
+            <v>-265.28400000000005</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>17991.239119999998</v>
+            <v>1706.4092803200001</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Santa Monica, CA</v>
+            <v>Austin, TX</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2010</v>
+            <v>2006</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>42795</v>
+            <v>44228</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>414</v>
+            <v>3.7206999999999999</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>3.29</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>5289</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>FY23</v>
+            <v>23.03</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="44">
+          <cell r="W44">
+            <v>1200</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -784,62 +780,66 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>10.68</v>
+            <v>11.03</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>134.936824</v>
+            <v>1612.5039999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>1441.12528032</v>
+            <v>17785.919119999999</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-265.28400000000005</v>
+            <v>-205.32000000000016</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1706.4092803200001</v>
+            <v>17991.239119999998</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Austin, TX</v>
+            <v>Santa Monica, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2006</v>
+            <v>2010</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>44228</v>
+            <v>42795</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>3.7206999999999999</v>
+            <v>414</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>23.03</v>
+            <v>3.29</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>5289</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>FY23</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="44">
-          <cell r="W44">
-            <v>1200</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1148,7 +1148,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E12:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1173,16 +1173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="53"/>
+      <c r="T1" s="47"/>
     </row>
     <row r="2" spans="2:26" s="2" customFormat="1">
       <c r="B2" s="2" t="s">
@@ -1327,52 +1327,52 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="51">
-        <f>[2]Main!$C$6</f>
+      <c r="F5" s="45">
+        <f>[1]Main!$C$6</f>
         <v>10.68</v>
       </c>
       <c r="G5" s="10">
-        <f>[2]Main!$C$7</f>
+        <f>[1]Main!$C$7</f>
         <v>134.936824</v>
       </c>
       <c r="H5" s="13">
-        <f>[2]Main!$C$8</f>
+        <f>[1]Main!$C$8</f>
         <v>1441.12528032</v>
       </c>
       <c r="I5" s="10">
-        <f>[2]Main!$C$11</f>
+        <f>[1]Main!$C$11</f>
         <v>-265.28400000000005</v>
       </c>
       <c r="J5" s="10">
-        <f>[2]Main!$C$12</f>
+        <f>[1]Main!$C$12</f>
         <v>1706.4092803200001</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>72</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="Q5" s="52">
-        <f>[2]Main!$C$27</f>
+      <c r="Q5" s="46">
+        <f>[1]Main!$C$27</f>
         <v>3.7206999999999999</v>
       </c>
-      <c r="S5" s="54">
-        <f>[2]Main!$C$28</f>
+      <c r="S5" s="48">
+        <f>[1]Main!$C$28</f>
         <v>23.03</v>
       </c>
       <c r="T5" s="44">
-        <f>'[2]Financial Model'!$W$44</f>
+        <f>'[1]Financial Model'!$W$44</f>
         <v>1200</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f>+[2]Main!$C$23</f>
+        <f>+[1]Main!$C$23</f>
         <v>Austin, TX</v>
       </c>
       <c r="W5" s="4">
-        <f>+[2]Main!$C$24</f>
+        <f>+[1]Main!$C$24</f>
         <v>2006</v>
       </c>
       <c r="X5" s="14">
-        <f>+[2]Main!$C$25</f>
+        <f>+[1]Main!$C$25</f>
         <v>44228</v>
       </c>
       <c r="Y5" s="14"/>
@@ -1457,52 +1457,52 @@
         <v>31</v>
       </c>
       <c r="F9" s="41">
-        <f>+[1]Main!$C$6</f>
+        <f>+[2]Main!$C$6</f>
         <v>11.03</v>
       </c>
       <c r="G9" s="10">
-        <f>+[1]Main!$C$7</f>
+        <f>+[2]Main!$C$7</f>
         <v>1612.5039999999999</v>
       </c>
       <c r="H9" s="13">
-        <f>+[1]Main!$C$8</f>
+        <f>+[2]Main!$C$8</f>
         <v>17785.919119999999</v>
       </c>
       <c r="I9" s="10">
-        <f>+[1]Main!$C$11</f>
+        <f>+[2]Main!$C$11</f>
         <v>-205.32000000000016</v>
       </c>
       <c r="J9" s="10">
-        <f>+[1]Main!$C$12</f>
+        <f>+[2]Main!$C$12</f>
         <v>17991.239119999998</v>
       </c>
       <c r="K9" s="11" t="str">
-        <f>+[1]Main!$C$31</f>
+        <f>+[2]Main!$C$31</f>
         <v>FY23</v>
       </c>
       <c r="M9" s="4"/>
       <c r="R9" s="4">
-        <f>[1]Main!$C$27</f>
+        <f>[2]Main!$C$27</f>
         <v>414</v>
       </c>
       <c r="S9" s="4">
-        <f>[1]Main!$C$28</f>
+        <f>[2]Main!$C$28</f>
         <v>3.29</v>
       </c>
       <c r="T9" s="44">
-        <f>[1]Main!$C$29</f>
+        <f>[2]Main!$C$29</f>
         <v>5289</v>
       </c>
       <c r="V9" s="4" t="str">
-        <f>+[1]Main!$C$23</f>
+        <f>+[2]Main!$C$23</f>
         <v>Santa Monica, CA</v>
       </c>
       <c r="W9" s="4">
-        <f>+[1]Main!$C$24</f>
+        <f>+[2]Main!$C$24</f>
         <v>2010</v>
       </c>
       <c r="X9" s="14">
-        <f>+[1]Main!$C$25</f>
+        <f>+[2]Main!$C$25</f>
         <v>42795</v>
       </c>
       <c r="Y9" s="14"/>
@@ -1593,14 +1593,14 @@
       <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="50"/>
+      <c r="T3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="46"/>
+      <c r="U3" s="50"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="24" t="s">
@@ -1682,12 +1682,12 @@
       </c>
     </row>
     <row r="14" spans="2:21">
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="26" t="s">
